--- a/02_Document/Usecase/user_cases.xlsx
+++ b/02_Document/Usecase/user_cases.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fall2016\CAPSTONE_PROJECT\GitHub\Capstone_ISE0801\02_Document\Usecase\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15000" windowHeight="4695"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="103">
   <si>
     <t>ID</t>
   </si>
@@ -48,9 +53,6 @@
     <t>Choose language</t>
   </si>
   <si>
-    <t>Language opption help visitor easy to use applicaion with selected language and corresponding contents language.</t>
-  </si>
-  <si>
     <t>Free museum</t>
   </si>
   <si>
@@ -69,9 +71,6 @@
     <t>Customer that have an account can login to the system.</t>
   </si>
   <si>
-    <t>Customer that loged in want to logout of system.</t>
-  </si>
-  <si>
     <t>Change customer profile</t>
   </si>
   <si>
@@ -138,12 +137,6 @@
     <t>Change password</t>
   </si>
   <si>
-    <t>Customer that loged in into the system can change their profile.</t>
-  </si>
-  <si>
-    <t>Customer that loged in into the system can change their account's password.</t>
-  </si>
-  <si>
     <t>Customer can upload new objects into system and attach their information.</t>
   </si>
   <si>
@@ -190,6 +183,153 @@
   </si>
   <si>
     <t>Someone who have highest permission on system.</t>
+  </si>
+  <si>
+    <t>UC- 20</t>
+  </si>
+  <si>
+    <t>UC- 21</t>
+  </si>
+  <si>
+    <t>UC- 22</t>
+  </si>
+  <si>
+    <t>UC- 23</t>
+  </si>
+  <si>
+    <t>UC- 24</t>
+  </si>
+  <si>
+    <t>UC- 25</t>
+  </si>
+  <si>
+    <t>UC- 26</t>
+  </si>
+  <si>
+    <t>Admin can login to manages system.</t>
+  </si>
+  <si>
+    <t>Insert new object</t>
+  </si>
+  <si>
+    <t>Need Permission from Museum?</t>
+  </si>
+  <si>
+    <t>Update object's data</t>
+  </si>
+  <si>
+    <t>Delete object</t>
+  </si>
+  <si>
+    <t>Language option help visitor easy to use application with selected language and corresponding contents language.</t>
+  </si>
+  <si>
+    <t>Customer that logged in want to logout of system.</t>
+  </si>
+  <si>
+    <t>Customer that logged in into the system can change their profile.</t>
+  </si>
+  <si>
+    <t>Customer that logged in into the system can change their account's password.</t>
+  </si>
+  <si>
+    <t>Admin that logged in want to logout of system.</t>
+  </si>
+  <si>
+    <t>Admin that logged in into the system can change admin account's password.</t>
+  </si>
+  <si>
+    <t>Admin can change data of exist object in system.</t>
+  </si>
+  <si>
+    <t>Admin can delete exist object in system.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accept become member request </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reject become member request </t>
+  </si>
+  <si>
+    <t>Answer any comment on every single object</t>
+  </si>
+  <si>
+    <t>Download raw data of object</t>
+  </si>
+  <si>
+    <t>Upload standar data ob project</t>
+  </si>
+  <si>
+    <t>Upload complicated data</t>
+  </si>
+  <si>
+    <t>nên bỏ?</t>
+  </si>
+  <si>
+    <t>UC- 27</t>
+  </si>
+  <si>
+    <t>UC- 28</t>
+  </si>
+  <si>
+    <t>UC- 29</t>
+  </si>
+  <si>
+    <t>Accept request from free museum and create new account for museum</t>
+  </si>
+  <si>
+    <t>Reject request from free museum and notify them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deactivate Museum </t>
+  </si>
+  <si>
+    <t>Activate Museum</t>
+  </si>
+  <si>
+    <t>có nên thêm chức năng deactive/activate data on app</t>
+  </si>
+  <si>
+    <t>Admin can communicate with Museum member through comment on related object .</t>
+  </si>
+  <si>
+    <t>Admin can download raw data uploaded by Museum Member to process and create standar data base on raw data.</t>
+  </si>
+  <si>
+    <t>Admin upload standar data after created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin can upload complicated data such as 3D model, </t>
+  </si>
+  <si>
+    <t>Active new Museum's Data</t>
+  </si>
+  <si>
+    <t>Aprove object deleting request</t>
+  </si>
+  <si>
+    <t>Reject object deleting request</t>
+  </si>
+  <si>
+    <t>UC- 30</t>
+  </si>
+  <si>
+    <t>Admin activate standar data after upload</t>
+  </si>
+  <si>
+    <t>Admin has permission to Deactive museum Account</t>
+  </si>
+  <si>
+    <t>Admin has permission to Activate museum Account</t>
+  </si>
+  <si>
+    <t>Admin has permission to insert new object</t>
+  </si>
+  <si>
+    <t>Admin has permission to aprove object deleting request from musemum to delete object from database</t>
+  </si>
+  <si>
+    <t>Admin has permission to reject object deleting request from musemum and still keep object in database.</t>
   </si>
 </sst>
 </file>
@@ -200,7 +340,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -209,7 +349,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -229,7 +369,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -324,11 +464,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -367,6 +529,19 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,6 +551,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -424,7 +602,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -459,7 +637,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -668,25 +846,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="9.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="17.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="46.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="4.125" customWidth="1"/>
+    <col min="5" max="5" width="29.125" customWidth="1"/>
     <col min="6" max="6" width="3.125" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="7" max="7" width="30.125" customWidth="1"/>
     <col min="8" max="8" width="43.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -700,9 +878,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -720,9 +898,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -737,12 +915,12 @@
         <v>4</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
@@ -751,223 +929,441 @@
         <v>9</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="G5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="D14" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="D16" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="9" t="s">
+      <c r="D17" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="B24" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>37</v>
+      <c r="B25" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="G25" s="17"/>
+    </row>
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="E24:E25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -979,7 +1375,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -991,7 +1387,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/02_Document/Usecase/user_cases.xlsx
+++ b/02_Document/Usecase/user_cases.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="115">
   <si>
     <t>ID</t>
   </si>
@@ -131,15 +131,9 @@
     <t>UC- 19</t>
   </si>
   <si>
-    <t>UC- 7.1</t>
-  </si>
-  <si>
     <t>Change password</t>
   </si>
   <si>
-    <t>Customer can upload new objects into system and attach their information.</t>
-  </si>
-  <si>
     <t>View object's information</t>
   </si>
   <si>
@@ -173,12 +167,6 @@
     <t>Museum that have account as a system's member and their staff who take responsibility for “The Erudite Guider” system.</t>
   </si>
   <si>
-    <t>Change status of object</t>
-  </si>
-  <si>
-    <t>Confirm that object is ready to release on system or not by Activate or Deactivate it.</t>
-  </si>
-  <si>
     <t>Administrator</t>
   </si>
   <si>
@@ -209,15 +197,6 @@
     <t>Admin can login to manages system.</t>
   </si>
   <si>
-    <t>Insert new object</t>
-  </si>
-  <si>
-    <t>Need Permission from Museum?</t>
-  </si>
-  <si>
-    <t>Update object's data</t>
-  </si>
-  <si>
     <t>Delete object</t>
   </si>
   <si>
@@ -254,18 +233,9 @@
     <t>Answer any comment on every single object</t>
   </si>
   <si>
-    <t>Download raw data of object</t>
-  </si>
-  <si>
-    <t>Upload standar data ob project</t>
-  </si>
-  <si>
     <t>Upload complicated data</t>
   </si>
   <si>
-    <t>nên bỏ?</t>
-  </si>
-  <si>
     <t>UC- 27</t>
   </si>
   <si>
@@ -287,57 +257,160 @@
     <t>Activate Museum</t>
   </si>
   <si>
-    <t>có nên thêm chức năng deactive/activate data on app</t>
-  </si>
-  <si>
     <t>Admin can communicate with Museum member through comment on related object .</t>
   </si>
   <si>
-    <t>Admin can download raw data uploaded by Museum Member to process and create standar data base on raw data.</t>
-  </si>
-  <si>
-    <t>Admin upload standar data after created</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admin can upload complicated data such as 3D model, </t>
-  </si>
-  <si>
-    <t>Active new Museum's Data</t>
-  </si>
-  <si>
-    <t>Aprove object deleting request</t>
-  </si>
-  <si>
     <t>Reject object deleting request</t>
   </si>
   <si>
     <t>UC- 30</t>
   </si>
   <si>
-    <t>Admin activate standar data after upload</t>
-  </si>
-  <si>
-    <t>Admin has permission to Deactive museum Account</t>
-  </si>
-  <si>
     <t>Admin has permission to Activate museum Account</t>
   </si>
   <si>
-    <t>Admin has permission to insert new object</t>
-  </si>
-  <si>
-    <t>Admin has permission to aprove object deleting request from musemum to delete object from database</t>
-  </si>
-  <si>
-    <t>Admin has permission to reject object deleting request from musemum and still keep object in database.</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>request</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> active - &gt; pending </t>
+    </r>
+  </si>
+  <si>
+    <t>change  object's data</t>
+  </si>
+  <si>
+    <t>27.1</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>33.1</t>
+  </si>
+  <si>
+    <t>33.2</t>
+  </si>
+  <si>
+    <t>Accept change status request</t>
+  </si>
+  <si>
+    <t>Reject change status request</t>
+  </si>
+  <si>
+    <t>Customer can upload new objects into system and attach their information. Pending only</t>
+  </si>
+  <si>
+    <t>Change object's simple data</t>
+  </si>
+  <si>
+    <t>simple data</t>
+  </si>
+  <si>
+    <t>complex data</t>
+  </si>
+  <si>
+    <t>Keyword</t>
+  </si>
+  <si>
+    <t>Pending Flag</t>
+  </si>
+  <si>
+    <t>Active Flag</t>
+  </si>
+  <si>
+    <t>Use for data: data can update</t>
+  </si>
+  <si>
+    <t>Data waiting for review</t>
+  </si>
+  <si>
+    <t>data can access by android app</t>
+  </si>
+  <si>
+    <t>Verify change status request</t>
+  </si>
+  <si>
+    <t>Admin has permission to Deactivate museum Account/ data -&gt;available</t>
+  </si>
+  <si>
+    <t>change status available -&gt; active</t>
+  </si>
+  <si>
+    <t>Admin can upload complicated data such as 3D model if necessary in pending status</t>
+  </si>
+  <si>
+    <t>Admin can change complicated data of exist object in system. in pending status</t>
+  </si>
+  <si>
+    <t>Admin has permission to reject object deleting request from museum and still keep object in database.</t>
+  </si>
+  <si>
+    <t>Meaning</t>
+  </si>
+  <si>
+    <t>data that customer can change easily: sound, text, image</t>
+  </si>
+  <si>
+    <t>Customer can change simple data of object in Pending status</t>
+  </si>
+  <si>
+    <t>Data that customer cannot change such as: 3D model</t>
+  </si>
+  <si>
+    <t>Available Flag</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Change status pending - &gt; available </t>
+  </si>
+  <si>
+    <t>Accept object deleting request</t>
+  </si>
+  <si>
+    <t>Admin has permission to Accept object deleting request from museum to delete object from database</t>
+  </si>
+  <si>
+    <t>Admin can change status after check data from custommer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -351,11 +424,10 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="163"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,6 +437,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,7 +568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -519,29 +597,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -846,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,7 +952,7 @@
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="13.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="17.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="46.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="29.125" customWidth="1"/>
     <col min="6" max="6" width="3.125" customWidth="1"/>
     <col min="7" max="7" width="30.125" customWidth="1"/>
@@ -915,7 +1010,7 @@
         <v>4</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -929,13 +1024,13 @@
         <v>9</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -946,7 +1041,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>11</v>
@@ -955,7 +1050,7 @@
         <v>14</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -972,10 +1067,10 @@
         <v>15</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -989,7 +1084,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1003,366 +1098,495 @@
         <v>16</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>24</v>
+        <v>62</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
       <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>26</v>
+        <v>108</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>27</v>
+        <v>38</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>28</v>
+        <v>42</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="C15" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="B17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="D17" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="B18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="D18" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="B19" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>63</v>
-      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="B22" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>84</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="25"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B23" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="23"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="23"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25" s="18"/>
-      <c r="G25" s="17"/>
-    </row>
-    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="6" t="s">
+      <c r="B28" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="6" t="s">
+      <c r="D28" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="18"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="17"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="6" t="s">
+      <c r="D29" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="18"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="17"/>
+    </row>
+    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="E30" s="23"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
     </row>
     <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E31" s="23"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="23"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+    </row>
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B31" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>102</v>
+      <c r="D34" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="23"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="23"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+    </row>
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" s="23"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+    </row>
+    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="E28:E29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
